--- a/Product backlog.xlsx
+++ b/Product backlog.xlsx
@@ -57,7 +57,7 @@
     <t>Hotel Booking System</t>
   </si>
   <si>
-    <t>Khách vãng lai (Guest)</t>
+    <t xml:space="preserve">Khách vãng lai </t>
   </si>
   <si>
     <t>Xác thực người dùng</t>
@@ -117,7 +117,7 @@
     <t>Lọc theo đánh giá</t>
   </si>
   <si>
-    <t>người thuê</t>
+    <t>Người thuê</t>
   </si>
   <si>
     <t>Cập nhật thông tin cá nhân</t>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="B3" s="6">
         <f>TODAY()</f>
-        <v>45520</v>
+        <v>45526</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="B4" s="7">
         <f>B3-B2</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -31866,7 +31866,7 @@
       </c>
       <c r="C3" s="6">
         <f>TODAY()</f>
-        <v>45520</v>
+        <v>45526</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -31900,7 +31900,7 @@
       </c>
       <c r="C4" s="7">
         <f>C3-C2</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
